--- a/Assignment2Frame/Assignment2Web/Assignment2Web/Datas/MemberList (3).xlsx
+++ b/Assignment2Frame/Assignment2Web/Assignment2Web/Datas/MemberList (3).xlsx
@@ -93,8 +93,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table" displayName="Table" ref="A1:D6">
-  <autoFilter ref="A1:D6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table" displayName="Table" ref="A1:D26">
+  <autoFilter ref="A1:D26"/>
   <tableColumns count="4">
     <tableColumn id="1" name="FullName"/>
     <tableColumn id="2" name="Address"/>
@@ -107,7 +107,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -172,35 +172,315 @@
         <v>6</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
